--- a/voluntariat_app/xlsx/template.xlsx
+++ b/voluntariat_app/xlsx/template.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">data!$A$1:$EA$3</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -188,6 +191,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -198,10 +205,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AMH1" s="2"/>
@@ -209,12 +216,14 @@
       <c r="AMJ1" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:EA3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>